--- a/Word/log/log_201608040210_houjie.xlsx
+++ b/Word/log/log_201608040210_houjie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\workspace\compmgr\Word\log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\IDEAProjects\compmgr\Word\log\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="28">
   <si>
     <t>日期</t>
   </si>
@@ -73,6 +73,50 @@
   </si>
   <si>
     <t>建立包名，完善dao里面的内容，写测试类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>练习SQL语句</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在进行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加查询，插入方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加通过id返回密码方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个人中心html界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写service层内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -458,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -611,7 +655,84 @@
         <v>15</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="5">
+        <v>43316</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="5">
+        <v>43317</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="5">
+        <v>43318</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="5">
+        <v>43319</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="5">
+        <v>43320</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="5">
+        <v>43321</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="5">
+        <v>43322</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
